--- a/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
   <si>
     <t>WPX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1398000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>443000</v>
+      </c>
+      <c r="F8" s="3">
         <v>795000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>695000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>359000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1022000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>484000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>430000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>374000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>155000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>145000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>350000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>461000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>88000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F9" s="3">
         <v>36000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>41000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>49000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>26000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>63000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>54000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>39000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>10000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>4000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>8000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>5000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>6000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1364000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>406000</v>
+      </c>
+      <c r="F10" s="3">
         <v>759000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>654000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>310000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>996000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>421000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>376000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>335000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>145000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>141000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>342000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>456000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>82000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>220000</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,43 +906,45 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3">
-        <v>3000</v>
+      <c r="E12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F12" s="3">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="G12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I12" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="I12" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J12" s="3">
-        <v>2000</v>
       </c>
       <c r="K12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>8</v>
+      <c r="L12" s="3">
+        <v>2000</v>
       </c>
       <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3">
-        <v>1000</v>
+      <c r="N12" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O12" s="3">
         <v>1000</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1059000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28000</v>
+      </c>
+      <c r="F14" s="3">
         <v>67000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>18000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>87000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>17000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>17000</v>
       </c>
       <c r="L14" s="3">
         <v>17000</v>
       </c>
       <c r="M14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="N14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O14" s="3">
         <v>15000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>38000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>13000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>247000</v>
+      </c>
+      <c r="F15" s="3">
         <v>241000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>221000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>219000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="I15" s="3">
         <v>226000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>193000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>197000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>161000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>155000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>133000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>141000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>147000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>158000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1624000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>573000</v>
+      </c>
+      <c r="F17" s="3">
         <v>600000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>514000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>508000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>497000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>458000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>504000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>368000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>295000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>172000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>275000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>291000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>310000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>552000</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-226000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="F18" s="3">
         <v>195000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>181000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-149000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>525000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>26000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-74000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>6000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-140000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-27000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>75000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>170000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-222000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-301000</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>248000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>128000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-2000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-2000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>1000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-1000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>2000</v>
       </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>127000</v>
+      </c>
+      <c r="F21" s="3">
         <v>440000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>650000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>198000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>749000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>218000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>124000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>173000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>45000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>144000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>246000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>319000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-64000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-151000</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>38000</v>
+        <v>48000</v>
       </c>
       <c r="E22" s="3">
         <v>40000</v>
       </c>
       <c r="F22" s="3">
-        <v>41000</v>
+        <v>38000</v>
       </c>
       <c r="G22" s="3">
         <v>40000</v>
       </c>
       <c r="H22" s="3">
+        <v>41000</v>
+      </c>
+      <c r="I22" s="3">
+        <v>40000</v>
+      </c>
+      <c r="J22" s="3">
         <v>38000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>39000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>46000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>47000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>48000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>46000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-267000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-160000</v>
+      </c>
+      <c r="F23" s="3">
         <v>161000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>389000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-62000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>483000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-14000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-112000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-41000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-188000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-73000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>29000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>125000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-269000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-350000</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-61000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F24" s="3">
         <v>39000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>84000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-14000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>130000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-8000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-33000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-76000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>305000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-298000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>-98000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-206000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="F26" s="3">
         <v>122000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>305000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-48000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>353000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-6000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-79000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-26000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-112000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-378000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>327000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>94000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-171000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-218000</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-208000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-121000</v>
+      </c>
+      <c r="F27" s="3">
         <v>122000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>305000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-48000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>353000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-6000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-83000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-30000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-116000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-381000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>323000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>90000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-174000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-244000</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,52 +1689,64 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-1000</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>1000</v>
       </c>
-      <c r="H29" s="3">
+      <c r="J29" s="3">
         <v>-1000</v>
       </c>
-      <c r="I29" s="3">
+      <c r="K29" s="3">
         <v>-2000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="L29" s="3">
         <v>-89000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="M29" s="3">
         <v>74000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="N29" s="3">
         <v>232000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="O29" s="3">
         <v>-251000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="P29" s="3">
         <v>-2000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="Q29" s="3">
         <v>-1000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="R29" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-248000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-128000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>2000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>2000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-1000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>1000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>-2000</v>
       </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="F33" s="3">
         <v>121000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>305000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-48000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>354000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-7000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-85000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-119000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-42000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-149000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>72000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>88000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-175000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="F35" s="3">
         <v>121000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>305000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-48000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>354000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-7000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-85000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-119000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-42000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-149000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>72000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>88000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-175000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F41" s="3">
         <v>13000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>109000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>6000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>3000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>36000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>103000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>681000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>189000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>10000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>142000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>496000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>623000</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,216 +2234,246 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>447000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>450000</v>
+      </c>
+      <c r="F43" s="3">
         <v>553000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>505000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>538000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>405000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>368000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>323000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>337000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>614000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>268000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>205000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>170000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>168000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>41000</v>
+      </c>
+      <c r="F44" s="3">
         <v>46000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>45000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>52000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>48000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>49000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>40000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>31000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>30000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>42000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>41000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>35000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>36000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>96000</v>
+      </c>
+      <c r="F45" s="3">
         <v>204000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>115000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>107000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>283000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>125000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>162000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>112000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>875000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>328000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>139000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>81000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>54000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1445000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>647000</v>
+      </c>
+      <c r="F46" s="3">
         <v>816000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>774000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>703000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>739000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>578000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>628000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1161000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1401000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>648000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>393000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>428000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>754000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>909000</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F47" s="3">
         <v>51000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>55000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>168000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>167000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>139000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>92000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>85000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>70000</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N47" s="3" t="s">
         <v>8</v>
@@ -2275,52 +2484,64 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8476000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>7666000</v>
+      </c>
+      <c r="F48" s="3">
         <v>7665000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>7649000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>7552000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>7266000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>7152000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>6974000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>6816000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>6691000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>7384000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>7485000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>7395000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>6474000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>6482000</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F52" s="3">
         <v>88000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>75000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>48000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>31000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>49000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>76000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>65000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>45000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>63000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>84000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>87000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>36000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>10096000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>8413000</v>
+      </c>
+      <c r="F54" s="3">
         <v>8620000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>8553000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>8471000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>8203000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>7918000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>7770000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>8127000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>8207000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>8095000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>7962000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>7910000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>7264000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>7446000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>618000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>556000</v>
+      </c>
+      <c r="F57" s="3">
         <v>686000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>721000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>683000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>514000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>607000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>563000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>522000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>446000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>369000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>348000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>294000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>222000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2698,17 +2965,23 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-      <c r="N58" s="3" t="s">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O58" s="3" t="s">
+      <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2716,175 +2989,199 @@
         <v>244000</v>
       </c>
       <c r="E59" s="3">
+        <v>342000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>244000</v>
+      </c>
+      <c r="G59" s="3">
         <v>305000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>327000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>201000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>524000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>511000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>403000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>400000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>268000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>271000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>294000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>455000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>862000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>898000</v>
+      </c>
+      <c r="F60" s="3">
         <v>930000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1026000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1010000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>715000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1131000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1074000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>925000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>846000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>637000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>619000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>588000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>677000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3200000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2202000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2201000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2157000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2470000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2485000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2243000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2154000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2576000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>2575000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>2859000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2601000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>2575000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>2575000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>943000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>798000</v>
+      </c>
+      <c r="F62" s="3">
         <v>846000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>809000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>743000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>702000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>605000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>607000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>620000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>695000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>437000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>438000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>525000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>546000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5016000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3898000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3977000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3992000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4223000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3902000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3979000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3835000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4121000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>4080000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3933000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3658000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3688000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3798000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3812000</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3186,10 +3521,10 @@
         <v>0</v>
       </c>
       <c r="I70" s="3">
-        <v>232000</v>
+        <v>0</v>
       </c>
       <c r="J70" s="3">
-        <v>232000</v>
+        <v>0</v>
       </c>
       <c r="K70" s="3">
         <v>232000</v>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>232000</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>232000</v>
+      </c>
+      <c r="R70" s="3">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3569000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-3181000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-3059000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-3180000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3485000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-3437000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3791000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3784000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-3703000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-3588000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-3550000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-3404000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-3480000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-3572000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-3400000</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>5080000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>4515000</v>
+      </c>
+      <c r="F76" s="3">
         <v>4643000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>4561000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>4248000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>4301000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>3939000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>3703000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>3774000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>3895000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>3930000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>4072000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>3990000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>3234000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>3402000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-388000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-122000</v>
+      </c>
+      <c r="F81" s="3">
         <v>121000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>305000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-48000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>354000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-7000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-85000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-119000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-42000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-149000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>72000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>88000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-175000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>259000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>247000</v>
+      </c>
+      <c r="F83" s="3">
         <v>241000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>221000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>219000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>226000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>194000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>197000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>168000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>186000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>169000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>171000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>147000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>157000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>272000</v>
+        <v>256000</v>
       </c>
       <c r="E89" s="3">
-        <v>362000</v>
+        <v>351000</v>
       </c>
       <c r="F89" s="3">
         <v>272000</v>
       </c>
       <c r="G89" s="3">
+        <v>362000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>272000</v>
+      </c>
+      <c r="I89" s="3">
         <v>231000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>224000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>283000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>145000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>279000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>86000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>120000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>22000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>154000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>1025000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-264000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-341000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-425000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-402000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-369000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-356000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-349000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-306000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-313000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-305000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-237000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-276000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-616000</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1225000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-266000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-312000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>42000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-237000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-493000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-406000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-359000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>362000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>190000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-320000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-275000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-1033000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-150000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,52 +4809,64 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>972000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-37000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-55000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-301000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-29000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>230000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>116000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-502000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>-14000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-290000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>236000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>657000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>-130000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-95000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>103000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>6000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-32000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-66000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-578000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>493000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>179000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-134000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-354000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-127000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-408000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
   <si>
     <t>WPX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1398000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>443000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>795000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>695000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>359000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1022000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>484000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>430000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>374000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>155000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>145000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>350000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>461000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>88000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E9" s="3">
         <v>34000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>37000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>36000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>41000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>49000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>63000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>54000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>39000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>10000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>4000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>8000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>5000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>6000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1364000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>406000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>759000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>654000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>310000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>996000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>421000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>376000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>335000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>145000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>141000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>342000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>456000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>82000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>220000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,46 +921,47 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="3">
         <v>2000</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>2000</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>3000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>1000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>3000</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>1000</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>2000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>1000</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="O12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="O12" s="3">
-        <v>1000</v>
       </c>
       <c r="P12" s="3">
         <v>1000</v>
@@ -958,8 +972,11 @@
       <c r="R12" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,37 +1025,40 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E14" s="3">
         <v>1059000</v>
       </c>
-      <c r="E14" s="3">
-        <v>28000</v>
-      </c>
       <c r="F14" s="3">
+        <v>21000</v>
+      </c>
+      <c r="G14" s="3">
         <v>67000</v>
       </c>
-      <c r="G14" s="3">
-        <v>21000</v>
-      </c>
       <c r="H14" s="3">
-        <v>23000</v>
+        <v>-226000</v>
       </c>
       <c r="I14" s="3">
-        <v>18000</v>
+        <v>-103000</v>
       </c>
       <c r="J14" s="3">
         <v>18000</v>
       </c>
       <c r="K14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="L14" s="3">
         <v>87000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>17000</v>
       </c>
       <c r="M14" s="3">
         <v>17000</v>
@@ -1047,69 +1067,75 @@
         <v>17000</v>
       </c>
       <c r="O14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="P14" s="3">
         <v>15000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>38000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>13000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E15" s="3">
         <v>259000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>247000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>241000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>221000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>219000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>226000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>193000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>197000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>161000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>155000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>133000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>141000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>147000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>158000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>502000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1624000</v>
       </c>
-      <c r="E17" s="3">
-        <v>573000</v>
-      </c>
       <c r="F17" s="3">
+        <v>566000</v>
+      </c>
+      <c r="G17" s="3">
         <v>600000</v>
       </c>
-      <c r="G17" s="3">
-        <v>514000</v>
-      </c>
       <c r="H17" s="3">
-        <v>508000</v>
+        <v>267000</v>
       </c>
       <c r="I17" s="3">
+        <v>382000</v>
+      </c>
+      <c r="J17" s="3">
         <v>497000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>458000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>504000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>368000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>295000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>172000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>275000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>291000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>310000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>552000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-469000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-226000</v>
       </c>
-      <c r="E18" s="3">
-        <v>-130000</v>
-      </c>
       <c r="F18" s="3">
+        <v>-123000</v>
+      </c>
+      <c r="G18" s="3">
         <v>195000</v>
       </c>
-      <c r="G18" s="3">
-        <v>181000</v>
-      </c>
       <c r="H18" s="3">
-        <v>-149000</v>
+        <v>428000</v>
       </c>
       <c r="I18" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="J18" s="3">
         <v>525000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>26000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-74000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>6000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-140000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-27000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>75000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>170000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-222000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-301000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E20" s="3">
         <v>7000</v>
       </c>
-      <c r="E20" s="3">
-        <v>10000</v>
-      </c>
       <c r="F20" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G20" s="3">
         <v>4000</v>
       </c>
-      <c r="G20" s="3">
-        <v>248000</v>
-      </c>
       <c r="H20" s="3">
-        <v>128000</v>
+        <v>1000</v>
       </c>
       <c r="I20" s="3">
-        <v>-2000</v>
+        <v>2000</v>
       </c>
       <c r="J20" s="3">
         <v>-2000</v>
       </c>
       <c r="K20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="L20" s="3">
         <v>1000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-1000</v>
       </c>
       <c r="M20" s="3">
         <v>-1000</v>
       </c>
       <c r="N20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="O20" s="3">
         <v>2000</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>1000</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-236000</v>
+      </c>
+      <c r="E21" s="3">
         <v>40000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>127000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>440000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>650000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>198000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>749000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>218000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>124000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>173000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>45000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>144000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>246000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>319000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-64000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-151000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>49000</v>
+      </c>
+      <c r="E22" s="3">
         <v>48000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>40000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>38000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>40000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>41000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>40000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>38000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>39000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>46000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>47000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>48000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>46000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>47000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>48000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-514000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-267000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-160000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>161000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>389000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-62000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>483000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-14000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-112000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-41000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-188000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-73000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>29000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>125000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-269000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-350000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-101000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-61000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-39000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>84000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-14000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>130000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-8000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-33000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-76000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>305000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-298000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-98000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-413000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-206000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-121000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>122000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>305000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-48000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>353000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-6000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-79000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-26000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-112000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-378000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>327000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>94000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-171000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-218000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-414000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-208000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-121000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>122000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>305000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-48000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>353000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-6000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-83000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-30000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-116000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-381000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>323000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>90000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-174000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-244000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,58 +1753,64 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E29" s="3">
         <v>-180000</v>
-      </c>
-      <c r="E29" s="3">
-        <v>-1000</v>
       </c>
       <c r="F29" s="3">
         <v>-1000</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="H29" s="3">
         <v>0</v>
       </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>1000</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-2000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-89000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>74000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>232000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>-251000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="Q29" s="3">
-        <v>-1000</v>
       </c>
       <c r="R29" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-7000</v>
       </c>
-      <c r="E32" s="3">
-        <v>-10000</v>
-      </c>
       <c r="F32" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-4000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-248000</v>
-      </c>
       <c r="H32" s="3">
-        <v>-128000</v>
+        <v>-1000</v>
       </c>
       <c r="I32" s="3">
-        <v>2000</v>
+        <v>-2000</v>
       </c>
       <c r="J32" s="3">
         <v>2000</v>
       </c>
       <c r="K32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="L32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>1000</v>
       </c>
       <c r="M32" s="3">
         <v>1000</v>
       </c>
       <c r="N32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O32" s="3">
         <v>-2000</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-1000</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-388000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-122000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>121000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>305000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-48000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>354000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-85000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-119000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-42000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-149000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>88000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-175000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-388000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-122000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>121000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>305000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-48000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>354000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-85000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-119000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-42000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-149000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>88000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-175000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>407000</v>
+      </c>
+      <c r="E41" s="3">
         <v>61000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>60000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>109000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>6000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>3000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>36000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>103000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>681000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>189000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>10000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>142000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>496000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>623000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,243 +2330,258 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>424000</v>
+      </c>
+      <c r="E43" s="3">
         <v>447000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>450000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>553000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>505000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>538000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>405000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>368000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>323000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>337000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>614000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>268000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>205000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>170000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>168000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E44" s="3">
         <v>30000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>41000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>46000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>45000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>52000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>48000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>49000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>40000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>31000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>30000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>42000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>41000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>35000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>36000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>387000</v>
+      </c>
+      <c r="E45" s="3">
         <v>907000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>96000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>204000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>115000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>107000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>283000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>125000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>162000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>112000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>875000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>328000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>139000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>81000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>54000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1245000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1445000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>647000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>816000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>774000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>703000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>739000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>578000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>628000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1161000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1401000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>648000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>393000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>428000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>754000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>909000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E47" s="3">
         <v>45000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>48000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>51000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>55000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>168000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>167000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>139000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>92000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>85000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>70000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2490,58 +2595,64 @@
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8421000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8476000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>7666000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7665000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7649000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7552000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7266000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7152000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>6974000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6816000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6691000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>7384000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7485000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7395000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>6474000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6482000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>151000</v>
+      </c>
+      <c r="E52" s="3">
         <v>130000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>52000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>88000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>75000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>48000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>31000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>49000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>76000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>65000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>45000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>63000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>84000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>87000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>36000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9858000</v>
+      </c>
+      <c r="E54" s="3">
         <v>10096000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>8413000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8620000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8553000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8471000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8203000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>7918000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7770000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>8127000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8207000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8095000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>7962000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7910000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7264000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7446000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,63 +3010,67 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>412000</v>
+      </c>
+      <c r="E57" s="3">
         <v>618000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>556000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>686000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>721000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>683000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>514000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>607000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>563000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>522000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>446000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>369000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>348000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>294000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>222000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
+        <v>369000</v>
       </c>
       <c r="E58" s="3">
         <v>0</v>
@@ -2944,17 +3078,17 @@
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -2971,217 +3105,232 @@
       <c r="O58" s="3">
         <v>0</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>8</v>
+      <c r="P58" s="3">
+        <v>0</v>
       </c>
       <c r="Q58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R58" s="3">
+      <c r="R58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S58" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>329000</v>
+      </c>
+      <c r="E59" s="3">
         <v>244000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>342000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>244000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>305000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>327000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>201000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>524000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>511000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>403000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>400000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>268000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>271000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>294000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>455000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1110000</v>
+      </c>
+      <c r="E60" s="3">
         <v>862000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>898000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>930000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1026000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1010000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>715000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1131000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1074000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>925000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>846000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>637000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>619000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>588000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>677000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3210000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3200000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2202000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2201000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2157000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2470000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2485000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2243000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2154000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2576000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2575000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2859000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2601000</v>
-      </c>
-      <c r="P61" s="3">
-        <v>2575000</v>
       </c>
       <c r="Q61" s="3">
         <v>2575000</v>
       </c>
       <c r="R61" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="S61" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>846000</v>
+      </c>
+      <c r="E62" s="3">
         <v>943000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>798000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>846000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>809000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>743000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>702000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>605000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>607000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>620000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>695000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>437000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>438000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>525000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>546000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5177000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5016000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3898000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3977000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3992000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4223000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3902000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3979000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3835000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4121000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4080000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3933000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3658000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3688000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3798000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3812000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3527,7 +3695,7 @@
         <v>0</v>
       </c>
       <c r="K70" s="3">
-        <v>232000</v>
+        <v>0</v>
       </c>
       <c r="L70" s="3">
         <v>232000</v>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>232000</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3978000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3569000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3181000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3059000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3180000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3485000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3437000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3791000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3784000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3703000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3588000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3550000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3404000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3480000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3572000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3400000</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4681000</v>
+      </c>
+      <c r="E76" s="3">
         <v>5080000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>4515000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4643000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4561000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4248000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4301000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>3939000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3703000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3774000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3895000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3930000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>4072000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3990000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3234000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3402000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-409000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-388000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-122000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>121000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>305000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-48000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>354000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-85000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-119000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-42000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-149000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>88000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-175000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>229000</v>
+      </c>
+      <c r="E83" s="3">
         <v>259000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>247000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>241000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>221000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>219000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>226000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>194000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>197000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>168000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>186000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>169000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>171000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>147000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>157000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>276000</v>
+      </c>
+      <c r="E89" s="3">
         <v>256000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>351000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>272000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>362000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>272000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>231000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>224000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>283000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>145000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>279000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>86000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>120000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>22000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>154000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-12000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>1025000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-264000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-341000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-425000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-402000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-369000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-356000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-349000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-306000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-313000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-305000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-237000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-276000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-616000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-298000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1225000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-266000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-312000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>42000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-237000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-493000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-406000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-359000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>362000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>190000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-320000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-275000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-1033000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-150000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,58 +5058,64 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>368000</v>
+      </c>
+      <c r="E100" s="3">
         <v>972000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-37000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-55000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-301000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-29000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>230000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>116000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-502000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-14000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-290000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>236000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>657000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-130000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>346000</v>
+      </c>
+      <c r="E102" s="3">
         <v>3000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>48000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-95000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>103000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>6000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-66000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-578000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>493000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>179000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>2000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-134000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-354000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-127000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-408000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/WPX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="92">
   <si>
     <t>WPX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>473000</v>
+      </c>
+      <c r="E8" s="3">
         <v>33000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1398000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>443000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>795000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>695000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>359000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1022000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>484000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>430000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>374000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>155000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>145000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>350000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>461000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>88000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>251000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E9" s="3">
         <v>32000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>34000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>37000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>36000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>41000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>49000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>26000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>63000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>54000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>39000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>10000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>4000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>8000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>5000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>6000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>31000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>378000</v>
+      </c>
+      <c r="E10" s="3">
         <v>1000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1364000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>406000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>759000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>654000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>310000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>996000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>421000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>376000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>335000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>145000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>141000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>342000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>456000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>82000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>220000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,49 +935,50 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
         <v>1000</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>2000</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>2000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>3000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>1000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>3000</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>1000</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>2000</v>
       </c>
-      <c r="N12" s="3">
+      <c r="O12" s="3">
         <v>1000</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="P12" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="P12" s="3">
-        <v>1000</v>
       </c>
       <c r="Q12" s="3">
         <v>1000</v>
@@ -975,8 +989,11 @@
       <c r="S12" s="3">
         <v>1000</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,40 +1045,43 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>39000</v>
+      </c>
+      <c r="E14" s="3">
         <v>19000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1059000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>21000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>67000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-226000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-103000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>18000</v>
       </c>
       <c r="K14" s="3">
         <v>18000</v>
       </c>
       <c r="L14" s="3">
+        <v>18000</v>
+      </c>
+      <c r="M14" s="3">
         <v>87000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>17000</v>
       </c>
       <c r="N14" s="3">
         <v>17000</v>
@@ -1070,72 +1090,78 @@
         <v>17000</v>
       </c>
       <c r="P14" s="3">
+        <v>17000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>15000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>38000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>13000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>12000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E15" s="3">
         <v>229000</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>259000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>247000</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>241000</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>221000</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>219000</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>226000</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>193000</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>197000</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>161000</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>155000</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>133000</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>141000</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>147000</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>158000</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>611000</v>
+      </c>
+      <c r="E17" s="3">
         <v>502000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1624000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>566000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>600000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>267000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>382000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>497000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>458000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>504000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>368000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>295000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>172000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>275000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>291000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>310000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>552000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-138000</v>
+      </c>
+      <c r="E18" s="3">
         <v>-469000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-226000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-123000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>195000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>428000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-23000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>525000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>26000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-74000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>6000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-140000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-27000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>75000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-222000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-301000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>4000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>7000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>3000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>4000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-2000</v>
       </c>
       <c r="K20" s="3">
         <v>-2000</v>
       </c>
       <c r="L20" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="M20" s="3">
         <v>1000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-1000</v>
       </c>
       <c r="N20" s="3">
         <v>-1000</v>
       </c>
       <c r="O20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="P20" s="3">
         <v>2000</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>2000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>1000</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>106000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-236000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>40000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>127000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>440000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>650000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>198000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>749000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>218000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>124000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>173000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>45000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>144000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>246000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>319000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-64000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-151000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>48000</v>
+      </c>
+      <c r="E22" s="3">
         <v>49000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>48000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>40000</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>38000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>40000</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>41000</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>40000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>38000</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>39000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>46000</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>47000</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>48000</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>46000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>47000</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>48000</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>49000</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-180000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-514000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-267000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-160000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>161000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>389000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-62000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>483000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-14000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-112000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-41000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-188000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-73000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>29000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>125000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-269000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-350000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-101000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-61000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-39000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>39000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>84000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>130000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-8000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-33000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-15000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-76000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>305000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-298000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>31000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-98000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-132000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-413000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-206000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-121000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>122000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>305000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-48000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>353000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-6000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-79000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-26000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-112000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-378000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>327000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>94000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-171000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-218000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-148000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-414000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-208000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-121000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>122000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>305000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-48000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>353000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-6000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-83000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-30000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-116000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-381000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>323000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>90000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-174000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-244000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,61 +1814,67 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E29" s="3">
         <v>5000</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-180000</v>
-      </c>
-      <c r="F29" s="3">
-        <v>-1000</v>
       </c>
       <c r="G29" s="3">
         <v>-1000</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>-1000</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
       </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-1000</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-2000</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>-89000</v>
       </c>
-      <c r="N29" s="3">
+      <c r="O29" s="3">
         <v>74000</v>
       </c>
-      <c r="O29" s="3">
+      <c r="P29" s="3">
         <v>232000</v>
       </c>
-      <c r="P29" s="3">
+      <c r="Q29" s="3">
         <v>-251000</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="R29" s="3">
         <v>-2000</v>
-      </c>
-      <c r="R29" s="3">
-        <v>-1000</v>
       </c>
       <c r="S29" s="3">
         <v>-1000</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>-1000</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-4000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-7000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-3000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-4000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>2000</v>
       </c>
       <c r="K32" s="3">
         <v>2000</v>
       </c>
       <c r="L32" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>1000</v>
       </c>
       <c r="N32" s="3">
         <v>1000</v>
       </c>
       <c r="O32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="P32" s="3">
         <v>-2000</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-1000</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-409000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-388000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-122000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>121000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>305000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-48000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>354000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-85000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-119000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-42000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-149000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>88000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-175000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-409000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-388000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-122000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>121000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>305000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-48000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>354000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-85000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-119000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-42000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-149000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>88000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-175000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>195000</v>
+      </c>
+      <c r="E41" s="3">
         <v>407000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>61000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>60000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>109000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>6000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>3000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>36000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>103000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>681000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>189000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>10000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>8000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>142000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>496000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>623000</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,258 +2423,273 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>446000</v>
+      </c>
+      <c r="E43" s="3">
         <v>424000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>447000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>450000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>553000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>505000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>538000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>405000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>368000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>323000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>337000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>614000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>268000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>205000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>170000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>168000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>23000</v>
+      </c>
+      <c r="E44" s="3">
         <v>27000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>30000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>41000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>46000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>45000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>52000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>48000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>49000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>40000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>31000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>30000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>42000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>41000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>35000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>36000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>33000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>227000</v>
+      </c>
+      <c r="E45" s="3">
         <v>387000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>907000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>96000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>204000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>115000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>107000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>283000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>125000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>162000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>112000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>875000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>328000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>139000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>81000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>54000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>106000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>891000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1245000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1445000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>647000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>816000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>774000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>703000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>739000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>578000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>628000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1161000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1401000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>648000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>393000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>428000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>754000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>909000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>38000</v>
+      </c>
+      <c r="E47" s="3">
         <v>41000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>45000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>48000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>51000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>55000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>168000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>167000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>139000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>92000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>85000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>70000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2598,61 +2703,67 @@
       <c r="S47" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>8438000</v>
+      </c>
+      <c r="E48" s="3">
         <v>8421000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>8476000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>7666000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>7665000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>7649000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>7552000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>7266000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>7152000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>6974000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>6816000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>6691000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>7384000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>7485000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>7395000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>6474000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>6482000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E52" s="3">
         <v>151000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>130000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>52000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>88000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>75000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>48000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>31000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>49000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>76000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>65000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>45000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>63000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>84000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>87000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>55000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>9501000</v>
+      </c>
+      <c r="E54" s="3">
         <v>9858000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>10096000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>8413000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>8620000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>8553000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>8471000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>8203000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>7918000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>7770000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>8127000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>8207000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>8095000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>7962000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>7910000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>7264000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>7446000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,75 +3141,79 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>529000</v>
+      </c>
+      <c r="E57" s="3">
         <v>412000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>618000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>556000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>686000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>721000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>683000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>514000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>607000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>563000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>522000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>446000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>369000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>348000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>294000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>222000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>185000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="3">
         <v>369000</v>
       </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
       <c r="F58" s="3">
         <v>0</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>8</v>
+      <c r="G58" s="3">
+        <v>0</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>8</v>
@@ -3090,8 +3224,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3108,229 +3242,244 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>8</v>
+      <c r="Q58" s="3">
+        <v>0</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S58" s="3">
+      <c r="S58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T58" s="3">
         <v>125000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>358000</v>
+      </c>
+      <c r="E59" s="3">
         <v>329000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>244000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>342000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>244000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>305000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>327000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>201000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>524000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>511000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>403000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>400000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>268000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>271000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>294000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>455000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>314000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>887000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1110000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>862000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>898000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>930000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1026000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1010000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>715000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1131000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1074000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>925000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>846000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>637000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>619000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>588000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>677000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>624000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>3213000</v>
+      </c>
+      <c r="E61" s="3">
         <v>3210000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>3200000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2202000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2201000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2157000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2470000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2485000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2243000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2154000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2576000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>2575000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2859000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>2601000</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>2575000</v>
       </c>
       <c r="R61" s="3">
         <v>2575000</v>
       </c>
       <c r="S61" s="3">
+        <v>2575000</v>
+      </c>
+      <c r="T61" s="3">
         <v>2574000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>853000</v>
+      </c>
+      <c r="E62" s="3">
         <v>846000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>943000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>798000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>846000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>809000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>743000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>702000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>605000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>607000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>620000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>695000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>437000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>438000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>525000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>546000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>614000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4965000</v>
+      </c>
+      <c r="E66" s="3">
         <v>5177000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5016000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3898000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3977000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3992000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4223000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3902000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3979000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3835000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4121000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>4080000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3933000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3658000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3688000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3798000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3812000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3698,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="L70" s="3">
-        <v>232000</v>
+        <v>0</v>
       </c>
       <c r="M70" s="3">
         <v>232000</v>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>232000</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>232000</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-4133000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3978000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3569000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-3181000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-3059000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3180000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-3485000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-3437000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3791000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3784000</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-3703000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-3588000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-3550000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-3404000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3480000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-3572000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-3400000</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>4536000</v>
+      </c>
+      <c r="E76" s="3">
         <v>4681000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>5080000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>4515000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>4643000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>4561000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>4248000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>4301000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>3939000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>3703000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>3774000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3895000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3930000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>4072000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3990000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>3234000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>3402000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-155000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-409000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-388000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-122000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>121000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>305000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-48000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>354000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-85000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-119000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-42000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-149000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>88000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-175000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-245000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>238000</v>
+      </c>
+      <c r="E83" s="3">
         <v>229000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>259000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>247000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>241000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>221000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>219000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>226000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>194000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>197000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>168000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>186000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>169000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>171000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>147000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>157000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>150000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>390000</v>
+      </c>
+      <c r="E89" s="3">
         <v>276000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>256000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>351000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>272000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>362000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>272000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>231000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>224000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>283000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>145000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>279000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>86000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>120000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>22000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>154000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>29000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-9000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-12000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>1025000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-264000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-341000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-425000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-402000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-369000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-356000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-349000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-306000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-313000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-305000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-237000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-276000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-616000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-212000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-298000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1225000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-266000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-312000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>42000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-237000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-493000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-406000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-359000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>362000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>190000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-320000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-275000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-1033000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-150000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-384000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-389000</v>
+      </c>
+      <c r="E100" s="3">
         <v>368000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>972000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-37000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-55000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-301000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-29000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>230000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>116000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-502000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-14000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-290000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>236000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>21000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>657000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-130000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-48000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,57 +5416,63 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-211000</v>
+      </c>
+      <c r="E102" s="3">
         <v>346000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>3000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>48000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-95000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>103000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>6000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-32000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-66000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-578000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>493000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>179000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-134000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-354000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-127000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-408000</v>
       </c>
     </row>
